--- a/FCS测试用例/测试用例.xlsx
+++ b/FCS测试用例/测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user1506\Desktop\fcs_function\FCS测试用例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55F88F0-A6D2-4416-AB8C-7FE21707B459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15B6713-26BF-44B8-B3C4-892D1731093E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="411">
   <si>
     <t>用例名</t>
   </si>
@@ -1252,13 +1252,21 @@
   </si>
   <si>
     <t>C:\Users\user1506\Desktop\新建文件夹\5.pptx</t>
+  </si>
+  <si>
+    <t>{"noCache":1,"isSignature":"0"}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"noCache":1,"isSignature":"1"}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1309,6 +1317,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1338,7 +1353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1365,6 +1380,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1646,8 +1664,8 @@
   </sheetPr>
   <dimension ref="A1:AN58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2090,8 +2108,8 @@
       <c r="C21" s="2">
         <v>0</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>52</v>
+      <c r="D21" s="11" t="s">
+        <v>409</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
@@ -2110,8 +2128,8 @@
       <c r="C22" s="2">
         <v>0</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>54</v>
+      <c r="D22" s="11" t="s">
+        <v>410</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
@@ -2843,6 +2861,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/FCS测试用例/测试用例.xlsx
+++ b/FCS测试用例/测试用例.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user1506\Desktop\fcs_function\FCS测试用例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15B6713-26BF-44B8-B3C4-892D1731093E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD4903F-20CB-40CC-8AC9-95CB22E35FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="150" yWindow="15" windowWidth="17025" windowHeight="15015" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0-wp" sheetId="1" r:id="rId1"/>
@@ -183,13 +183,7 @@
     <t>doc_0_020</t>
   </si>
   <si>
-    <t>{"noCache":1,"isSignature":"1"}</t>
-  </si>
-  <si>
     <t>doc_0_021</t>
-  </si>
-  <si>
-    <t>{"noCache":1,"isSignature":"0"}</t>
   </si>
   <si>
     <t>doc_0_022</t>
@@ -1260,6 +1254,14 @@
   <si>
     <t>{"noCache":1,"isSignature":"1"}</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"noCache":1,"isSignature":"0"}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"noCache":1,"isSignature":"1"}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1664,7 +1666,7 @@
   </sheetPr>
   <dimension ref="A1:AN58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -1723,7 +1725,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -1743,7 +1745,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -1763,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -1803,7 +1805,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -1823,7 +1825,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -1843,7 +1845,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -1863,7 +1865,7 @@
         <v>27</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -1883,7 +1885,7 @@
         <v>29</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -1903,7 +1905,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -1923,7 +1925,7 @@
         <v>33</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -1943,7 +1945,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -1963,7 +1965,7 @@
         <v>37</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -1983,7 +1985,7 @@
         <v>39</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -2003,7 +2005,7 @@
         <v>41</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -2023,7 +2025,7 @@
         <v>43</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -2043,7 +2045,7 @@
         <v>45</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -2063,7 +2065,7 @@
         <v>47</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -2083,7 +2085,7 @@
         <v>49</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -2103,13 +2105,13 @@
         <v>51</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
@@ -2120,16 +2122,16 @@
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
@@ -2140,16 +2142,16 @@
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>14</v>
@@ -2160,16 +2162,16 @@
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>14</v>
@@ -2180,16 +2182,16 @@
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>14</v>
@@ -2200,16 +2202,16 @@
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>14</v>
@@ -2220,16 +2222,16 @@
     </row>
     <row r="27" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>14</v>
@@ -2240,16 +2242,16 @@
     </row>
     <row r="28" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>14</v>
@@ -2260,16 +2262,16 @@
     </row>
     <row r="29" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>14</v>
@@ -2280,16 +2282,16 @@
     </row>
     <row r="30" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>14</v>
@@ -2300,16 +2302,16 @@
     </row>
     <row r="31" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>14</v>
@@ -2320,16 +2322,16 @@
     </row>
     <row r="32" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C32" s="2">
         <v>0</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
@@ -2340,16 +2342,16 @@
     </row>
     <row r="33" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>14</v>
@@ -2360,16 +2362,16 @@
     </row>
     <row r="34" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C34" s="2">
         <v>0</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>14</v>
@@ -2380,16 +2382,16 @@
     </row>
     <row r="35" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C35" s="2">
         <v>0</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>14</v>
@@ -2400,16 +2402,16 @@
     </row>
     <row r="36" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C36" s="2">
         <v>0</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>14</v>
@@ -2420,16 +2422,16 @@
     </row>
     <row r="37" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C37" s="2">
         <v>0</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>14</v>
@@ -2440,16 +2442,16 @@
     </row>
     <row r="38" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C38" s="2">
         <v>0</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>14</v>
@@ -2460,16 +2462,16 @@
     </row>
     <row r="39" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C39" s="2">
         <v>0</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>14</v>
@@ -2480,16 +2482,16 @@
     </row>
     <row r="40" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C40" s="2">
         <v>0</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>14</v>
@@ -2500,16 +2502,16 @@
     </row>
     <row r="41" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C41" s="2">
         <v>0</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>14</v>
@@ -2520,16 +2522,16 @@
     </row>
     <row r="42" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>14</v>
@@ -2540,16 +2542,16 @@
     </row>
     <row r="43" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>14</v>
@@ -2560,16 +2562,16 @@
     </row>
     <row r="44" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>14</v>
@@ -2580,16 +2582,16 @@
     </row>
     <row r="45" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>14</v>
@@ -2600,16 +2602,16 @@
     </row>
     <row r="46" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>14</v>
@@ -2620,16 +2622,16 @@
     </row>
     <row r="47" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>14</v>
@@ -2640,16 +2642,16 @@
     </row>
     <row r="48" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>14</v>
@@ -2660,16 +2662,16 @@
     </row>
     <row r="49" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>14</v>
@@ -2680,16 +2682,16 @@
     </row>
     <row r="50" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>14</v>
@@ -2700,16 +2702,16 @@
     </row>
     <row r="51" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>14</v>
@@ -2720,16 +2722,16 @@
     </row>
     <row r="52" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>14</v>
@@ -2740,16 +2742,16 @@
     </row>
     <row r="53" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>14</v>
@@ -2760,16 +2762,16 @@
     </row>
     <row r="54" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>14</v>
@@ -2780,16 +2782,16 @@
     </row>
     <row r="55" spans="1:9" s="2" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>14</v>
@@ -2800,16 +2802,16 @@
     </row>
     <row r="56" spans="1:9" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>14</v>
@@ -2820,16 +2822,16 @@
     </row>
     <row r="57" spans="1:9" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>14</v>
@@ -2840,16 +2842,16 @@
     </row>
     <row r="58" spans="1:9" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>14</v>
@@ -2872,8 +2874,8 @@
   </sheetPr>
   <dimension ref="A1:AN51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2928,10 +2930,10 @@
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -2948,10 +2950,10 @@
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -2968,10 +2970,10 @@
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -2988,10 +2990,10 @@
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -3008,10 +3010,10 @@
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -3028,10 +3030,10 @@
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -3048,10 +3050,10 @@
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -3068,10 +3070,10 @@
     </row>
     <row r="9" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -3088,10 +3090,10 @@
     </row>
     <row r="10" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -3108,10 +3110,10 @@
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -3128,10 +3130,10 @@
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -3148,10 +3150,10 @@
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -3168,10 +3170,10 @@
     </row>
     <row r="14" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -3188,10 +3190,10 @@
     </row>
     <row r="15" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -3208,16 +3210,16 @@
     </row>
     <row r="16" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>52</v>
+      <c r="D16" s="11" t="s">
+        <v>407</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
@@ -3228,16 +3230,16 @@
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>54</v>
+      <c r="D17" s="11" t="s">
+        <v>408</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>14</v>
@@ -3248,16 +3250,16 @@
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>14</v>
@@ -3268,16 +3270,16 @@
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>14</v>
@@ -3288,16 +3290,16 @@
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>14</v>
@@ -3308,16 +3310,16 @@
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
@@ -3328,16 +3330,16 @@
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
@@ -3348,16 +3350,16 @@
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>14</v>
@@ -3368,16 +3370,16 @@
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>14</v>
@@ -3388,16 +3390,16 @@
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>14</v>
@@ -3408,16 +3410,16 @@
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>14</v>
@@ -3428,16 +3430,16 @@
     </row>
     <row r="27" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>14</v>
@@ -3448,16 +3450,16 @@
     </row>
     <row r="28" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>14</v>
@@ -3468,16 +3470,16 @@
     </row>
     <row r="29" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>14</v>
@@ -3488,16 +3490,16 @@
     </row>
     <row r="30" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>14</v>
@@ -3508,16 +3510,16 @@
     </row>
     <row r="31" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>14</v>
@@ -3528,16 +3530,16 @@
     </row>
     <row r="32" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C32" s="2">
         <v>0</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
@@ -3548,16 +3550,16 @@
     </row>
     <row r="33" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>14</v>
@@ -3568,16 +3570,16 @@
     </row>
     <row r="34" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C34" s="2">
         <v>0</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>14</v>
@@ -3588,16 +3590,16 @@
     </row>
     <row r="35" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C35" s="2">
         <v>0</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>14</v>
@@ -3608,16 +3610,16 @@
     </row>
     <row r="36" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C36" s="2">
         <v>0</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>14</v>
@@ -3628,16 +3630,16 @@
     </row>
     <row r="37" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C37" s="2">
         <v>0</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>14</v>
@@ -3648,16 +3650,16 @@
     </row>
     <row r="38" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C38" s="2">
         <v>0</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>14</v>
@@ -3668,16 +3670,16 @@
     </row>
     <row r="39" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C39" s="2">
         <v>0</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>14</v>
@@ -3688,16 +3690,16 @@
     </row>
     <row r="40" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C40" s="2">
         <v>0</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>14</v>
@@ -3708,16 +3710,16 @@
     </row>
     <row r="41" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C41" s="2">
         <v>0</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>14</v>
@@ -3728,16 +3730,16 @@
     </row>
     <row r="42" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>14</v>
@@ -3748,16 +3750,16 @@
     </row>
     <row r="43" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>14</v>
@@ -3768,16 +3770,16 @@
     </row>
     <row r="44" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>14</v>
@@ -3788,16 +3790,16 @@
     </row>
     <row r="45" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>14</v>
@@ -3808,16 +3810,16 @@
     </row>
     <row r="46" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>14</v>
@@ -3828,16 +3830,16 @@
     </row>
     <row r="47" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>14</v>
@@ -3848,16 +3850,16 @@
     </row>
     <row r="48" spans="1:9" s="2" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>14</v>
@@ -3868,16 +3870,16 @@
     </row>
     <row r="49" spans="1:9" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>14</v>
@@ -3888,16 +3890,16 @@
     </row>
     <row r="50" spans="1:9" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>14</v>
@@ -3908,16 +3910,16 @@
     </row>
     <row r="51" spans="1:9" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>14</v>
@@ -3939,8 +3941,8 @@
   </sheetPr>
   <dimension ref="A1:AN55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3995,10 +3997,10 @@
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -4015,10 +4017,10 @@
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -4035,10 +4037,10 @@
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -4055,10 +4057,10 @@
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -4075,10 +4077,10 @@
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -4095,10 +4097,10 @@
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -4115,10 +4117,10 @@
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -4135,10 +4137,10 @@
     </row>
     <row r="9" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -4155,10 +4157,10 @@
     </row>
     <row r="10" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -4175,10 +4177,10 @@
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -4195,10 +4197,10 @@
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -4215,10 +4217,10 @@
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -4235,10 +4237,10 @@
     </row>
     <row r="14" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -4255,10 +4257,10 @@
     </row>
     <row r="15" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -4275,16 +4277,16 @@
     </row>
     <row r="16" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>52</v>
+      <c r="D16" s="11" t="s">
+        <v>407</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
@@ -4295,16 +4297,16 @@
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>54</v>
+      <c r="D17" s="11" t="s">
+        <v>408</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>14</v>
@@ -4315,16 +4317,16 @@
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>14</v>
@@ -4335,16 +4337,16 @@
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>14</v>
@@ -4355,16 +4357,16 @@
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>14</v>
@@ -4375,16 +4377,16 @@
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
@@ -4395,16 +4397,16 @@
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
@@ -4415,16 +4417,16 @@
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>14</v>
@@ -4435,16 +4437,16 @@
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>14</v>
@@ -4455,16 +4457,16 @@
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>14</v>
@@ -4475,16 +4477,16 @@
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>14</v>
@@ -4495,16 +4497,16 @@
     </row>
     <row r="27" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>14</v>
@@ -4515,16 +4517,16 @@
     </row>
     <row r="28" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>14</v>
@@ -4535,16 +4537,16 @@
     </row>
     <row r="29" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>14</v>
@@ -4555,16 +4557,16 @@
     </row>
     <row r="30" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>14</v>
@@ -4575,16 +4577,16 @@
     </row>
     <row r="31" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>14</v>
@@ -4595,16 +4597,16 @@
     </row>
     <row r="32" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C32" s="2">
         <v>0</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
@@ -4615,16 +4617,16 @@
     </row>
     <row r="33" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>14</v>
@@ -4635,16 +4637,16 @@
     </row>
     <row r="34" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C34" s="2">
         <v>0</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>14</v>
@@ -4655,16 +4657,16 @@
     </row>
     <row r="35" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C35" s="2">
         <v>0</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>14</v>
@@ -4675,16 +4677,16 @@
     </row>
     <row r="36" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C36" s="2">
         <v>0</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>14</v>
@@ -4695,16 +4697,16 @@
     </row>
     <row r="37" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C37" s="2">
         <v>0</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>14</v>
@@ -4715,16 +4717,16 @@
     </row>
     <row r="38" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C38" s="2">
         <v>0</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>14</v>
@@ -4735,16 +4737,16 @@
     </row>
     <row r="39" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C39" s="2">
         <v>0</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>14</v>
@@ -4755,16 +4757,16 @@
     </row>
     <row r="40" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C40" s="2">
         <v>0</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>14</v>
@@ -4775,16 +4777,16 @@
     </row>
     <row r="41" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C41" s="2">
         <v>0</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>14</v>
@@ -4795,16 +4797,16 @@
     </row>
     <row r="42" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>14</v>
@@ -4815,16 +4817,16 @@
     </row>
     <row r="43" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>14</v>
@@ -4835,16 +4837,16 @@
     </row>
     <row r="44" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>14</v>
@@ -4855,16 +4857,16 @@
     </row>
     <row r="45" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>14</v>
@@ -4875,16 +4877,16 @@
     </row>
     <row r="46" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>14</v>
@@ -4895,16 +4897,16 @@
     </row>
     <row r="47" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>14</v>
@@ -4915,16 +4917,16 @@
     </row>
     <row r="48" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>14</v>
@@ -4935,16 +4937,16 @@
     </row>
     <row r="49" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>14</v>
@@ -4955,16 +4957,16 @@
     </row>
     <row r="50" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>14</v>
@@ -4975,16 +4977,16 @@
     </row>
     <row r="51" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>14</v>
@@ -4995,16 +4997,16 @@
     </row>
     <row r="52" spans="1:9" s="2" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>14</v>
@@ -5015,16 +5017,16 @@
     </row>
     <row r="53" spans="1:9" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>14</v>
@@ -5035,16 +5037,16 @@
     </row>
     <row r="54" spans="1:9" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>14</v>
@@ -5055,16 +5057,16 @@
     </row>
     <row r="55" spans="1:9" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>14</v>
@@ -5086,8 +5088,8 @@
   </sheetPr>
   <dimension ref="A1:AN58"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C58"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5142,13 +5144,13 @@
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>13</v>
@@ -5162,13 +5164,13 @@
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>16</v>
@@ -5182,13 +5184,13 @@
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>18</v>
@@ -5202,13 +5204,13 @@
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>20</v>
@@ -5222,13 +5224,13 @@
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>22</v>
@@ -5242,10 +5244,10 @@
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C7" s="2">
         <v>61</v>
@@ -5262,10 +5264,10 @@
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C8" s="2">
         <v>61</v>
@@ -5282,10 +5284,10 @@
     </row>
     <row r="9" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C9" s="2">
         <v>61</v>
@@ -5302,10 +5304,10 @@
     </row>
     <row r="10" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C10" s="2">
         <v>61</v>
@@ -5322,10 +5324,10 @@
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C11" s="2">
         <v>61</v>
@@ -5342,10 +5344,10 @@
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C12" s="2">
         <v>61</v>
@@ -5362,10 +5364,10 @@
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C13" s="2">
         <v>61</v>
@@ -5382,10 +5384,10 @@
     </row>
     <row r="14" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C14" s="2">
         <v>61</v>
@@ -5402,10 +5404,10 @@
     </row>
     <row r="15" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C15" s="2">
         <v>61</v>
@@ -5422,10 +5424,10 @@
     </row>
     <row r="16" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C16" s="2">
         <v>61</v>
@@ -5442,10 +5444,10 @@
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C17" s="2">
         <v>61</v>
@@ -5462,10 +5464,10 @@
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C18" s="2">
         <v>61</v>
@@ -5482,10 +5484,10 @@
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C19" s="2">
         <v>61</v>
@@ -5502,10 +5504,10 @@
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C20" s="2">
         <v>61</v>
@@ -5522,16 +5524,16 @@
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C21" s="2">
         <v>61</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>52</v>
+      <c r="D21" s="11" t="s">
+        <v>407</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
@@ -5542,16 +5544,16 @@
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C22" s="2">
         <v>61</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>54</v>
+      <c r="D22" s="11" t="s">
+        <v>408</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
@@ -5562,16 +5564,16 @@
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C23" s="2">
         <v>61</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>14</v>
@@ -5582,16 +5584,16 @@
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C24" s="2">
         <v>61</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>14</v>
@@ -5602,16 +5604,16 @@
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C25" s="2">
         <v>61</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>14</v>
@@ -5622,16 +5624,16 @@
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C26" s="2">
         <v>61</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>14</v>
@@ -5642,16 +5644,16 @@
     </row>
     <row r="27" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C27" s="2">
         <v>61</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>14</v>
@@ -5662,16 +5664,16 @@
     </row>
     <row r="28" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C28" s="2">
         <v>61</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>14</v>
@@ -5682,16 +5684,16 @@
     </row>
     <row r="29" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C29" s="2">
         <v>61</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>14</v>
@@ -5702,16 +5704,16 @@
     </row>
     <row r="30" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C30" s="2">
         <v>61</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>14</v>
@@ -5722,16 +5724,16 @@
     </row>
     <row r="31" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C31" s="2">
         <v>61</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>14</v>
@@ -5742,16 +5744,16 @@
     </row>
     <row r="32" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C32" s="2">
         <v>61</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
@@ -5762,16 +5764,16 @@
     </row>
     <row r="33" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C33" s="2">
         <v>61</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>14</v>
@@ -5782,16 +5784,16 @@
     </row>
     <row r="34" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C34" s="2">
         <v>61</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>14</v>
@@ -5802,16 +5804,16 @@
     </row>
     <row r="35" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C35" s="2">
         <v>61</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>14</v>
@@ -5822,16 +5824,16 @@
     </row>
     <row r="36" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C36" s="2">
         <v>61</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>14</v>
@@ -5842,16 +5844,16 @@
     </row>
     <row r="37" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C37" s="2">
         <v>61</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>14</v>
@@ -5862,16 +5864,16 @@
     </row>
     <row r="38" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C38" s="2">
         <v>61</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>14</v>
@@ -5882,16 +5884,16 @@
     </row>
     <row r="39" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C39" s="2">
         <v>61</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>14</v>
@@ -5902,16 +5904,16 @@
     </row>
     <row r="40" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C40" s="2">
         <v>61</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>14</v>
@@ -5922,16 +5924,16 @@
     </row>
     <row r="41" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C41" s="2">
         <v>61</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>14</v>
@@ -5942,16 +5944,16 @@
     </row>
     <row r="42" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C42" s="2">
         <v>61</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>14</v>
@@ -5962,16 +5964,16 @@
     </row>
     <row r="43" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C43" s="2">
         <v>61</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>14</v>
@@ -5982,16 +5984,16 @@
     </row>
     <row r="44" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C44" s="2">
         <v>61</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>14</v>
@@ -6002,16 +6004,16 @@
     </row>
     <row r="45" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C45" s="2">
         <v>61</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>14</v>
@@ -6022,16 +6024,16 @@
     </row>
     <row r="46" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C46" s="2">
         <v>61</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>14</v>
@@ -6042,16 +6044,16 @@
     </row>
     <row r="47" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C47" s="2">
         <v>61</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>14</v>
@@ -6062,16 +6064,16 @@
     </row>
     <row r="48" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C48" s="2">
         <v>61</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>14</v>
@@ -6082,16 +6084,16 @@
     </row>
     <row r="49" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C49" s="2">
         <v>61</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>14</v>
@@ -6102,16 +6104,16 @@
     </row>
     <row r="50" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C50" s="2">
         <v>61</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>14</v>
@@ -6122,16 +6124,16 @@
     </row>
     <row r="51" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C51" s="2">
         <v>61</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>14</v>
@@ -6142,16 +6144,16 @@
     </row>
     <row r="52" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C52" s="2">
         <v>61</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>14</v>
@@ -6162,16 +6164,16 @@
     </row>
     <row r="53" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C53" s="2">
         <v>61</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>14</v>
@@ -6182,16 +6184,16 @@
     </row>
     <row r="54" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C54" s="2">
         <v>61</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>14</v>
@@ -6202,16 +6204,16 @@
     </row>
     <row r="55" spans="1:9" s="2" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C55" s="2">
         <v>61</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>14</v>
@@ -6222,16 +6224,16 @@
     </row>
     <row r="56" spans="1:9" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C56" s="2">
         <v>61</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>14</v>
@@ -6242,16 +6244,16 @@
     </row>
     <row r="57" spans="1:9" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C57" s="2">
         <v>61</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>14</v>
@@ -6262,16 +6264,16 @@
     </row>
     <row r="58" spans="1:9" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C58" s="2">
         <v>61</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>14</v>
@@ -6283,6 +6285,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6294,7 +6297,7 @@
   <dimension ref="A1:AN51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C51"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6349,10 +6352,10 @@
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C2" s="2">
         <v>61</v>
@@ -6369,10 +6372,10 @@
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C3" s="2">
         <v>61</v>
@@ -6389,10 +6392,10 @@
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C4" s="2">
         <v>61</v>
@@ -6409,10 +6412,10 @@
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C5" s="2">
         <v>61</v>
@@ -6429,10 +6432,10 @@
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C6" s="2">
         <v>61</v>
@@ -6449,10 +6452,10 @@
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C7" s="2">
         <v>61</v>
@@ -6469,10 +6472,10 @@
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C8" s="2">
         <v>61</v>
@@ -6489,10 +6492,10 @@
     </row>
     <row r="9" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C9" s="2">
         <v>61</v>
@@ -6509,10 +6512,10 @@
     </row>
     <row r="10" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C10" s="2">
         <v>61</v>
@@ -6529,10 +6532,10 @@
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C11" s="2">
         <v>61</v>
@@ -6549,10 +6552,10 @@
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C12" s="2">
         <v>61</v>
@@ -6569,10 +6572,10 @@
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C13" s="2">
         <v>61</v>
@@ -6589,10 +6592,10 @@
     </row>
     <row r="14" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C14" s="2">
         <v>61</v>
@@ -6609,10 +6612,10 @@
     </row>
     <row r="15" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C15" s="2">
         <v>61</v>
@@ -6629,16 +6632,16 @@
     </row>
     <row r="16" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C16" s="2">
         <v>61</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>52</v>
+      <c r="D16" s="11" t="s">
+        <v>407</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
@@ -6649,16 +6652,16 @@
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C17" s="2">
         <v>61</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>54</v>
+      <c r="D17" s="11" t="s">
+        <v>408</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>14</v>
@@ -6669,16 +6672,16 @@
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C18" s="2">
         <v>61</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>14</v>
@@ -6689,16 +6692,16 @@
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C19" s="2">
         <v>61</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>14</v>
@@ -6709,16 +6712,16 @@
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C20" s="2">
         <v>61</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>14</v>
@@ -6729,16 +6732,16 @@
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C21" s="2">
         <v>61</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
@@ -6749,16 +6752,16 @@
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C22" s="2">
         <v>61</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
@@ -6769,16 +6772,16 @@
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C23" s="2">
         <v>61</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>14</v>
@@ -6789,16 +6792,16 @@
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C24" s="2">
         <v>61</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>14</v>
@@ -6809,16 +6812,16 @@
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C25" s="2">
         <v>61</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>14</v>
@@ -6829,16 +6832,16 @@
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C26" s="2">
         <v>61</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>14</v>
@@ -6849,16 +6852,16 @@
     </row>
     <row r="27" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C27" s="2">
         <v>61</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>14</v>
@@ -6869,16 +6872,16 @@
     </row>
     <row r="28" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C28" s="2">
         <v>61</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>14</v>
@@ -6889,16 +6892,16 @@
     </row>
     <row r="29" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C29" s="2">
         <v>61</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>14</v>
@@ -6909,16 +6912,16 @@
     </row>
     <row r="30" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C30" s="2">
         <v>61</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>14</v>
@@ -6929,16 +6932,16 @@
     </row>
     <row r="31" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C31" s="2">
         <v>61</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>14</v>
@@ -6949,16 +6952,16 @@
     </row>
     <row r="32" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C32" s="2">
         <v>61</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
@@ -6969,16 +6972,16 @@
     </row>
     <row r="33" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C33" s="2">
         <v>61</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>14</v>
@@ -6989,16 +6992,16 @@
     </row>
     <row r="34" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C34" s="2">
         <v>61</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>14</v>
@@ -7009,16 +7012,16 @@
     </row>
     <row r="35" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C35" s="2">
         <v>61</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>14</v>
@@ -7029,16 +7032,16 @@
     </row>
     <row r="36" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C36" s="2">
         <v>61</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>14</v>
@@ -7049,16 +7052,16 @@
     </row>
     <row r="37" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C37" s="2">
         <v>61</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>14</v>
@@ -7069,16 +7072,16 @@
     </row>
     <row r="38" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C38" s="2">
         <v>61</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>14</v>
@@ -7089,16 +7092,16 @@
     </row>
     <row r="39" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C39" s="2">
         <v>61</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>14</v>
@@ -7109,16 +7112,16 @@
     </row>
     <row r="40" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C40" s="2">
         <v>61</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>14</v>
@@ -7129,16 +7132,16 @@
     </row>
     <row r="41" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C41" s="2">
         <v>61</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>14</v>
@@ -7149,16 +7152,16 @@
     </row>
     <row r="42" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C42" s="2">
         <v>61</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>14</v>
@@ -7169,16 +7172,16 @@
     </row>
     <row r="43" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C43" s="2">
         <v>61</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>14</v>
@@ -7189,16 +7192,16 @@
     </row>
     <row r="44" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C44" s="2">
         <v>61</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>14</v>
@@ -7209,16 +7212,16 @@
     </row>
     <row r="45" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C45" s="2">
         <v>61</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>14</v>
@@ -7229,16 +7232,16 @@
     </row>
     <row r="46" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C46" s="2">
         <v>61</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>14</v>
@@ -7249,16 +7252,16 @@
     </row>
     <row r="47" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C47" s="2">
         <v>61</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>14</v>
@@ -7269,16 +7272,16 @@
     </row>
     <row r="48" spans="1:9" s="2" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C48" s="2">
         <v>61</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>14</v>
@@ -7289,16 +7292,16 @@
     </row>
     <row r="49" spans="1:9" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C49" s="2">
         <v>61</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>14</v>
@@ -7309,16 +7312,16 @@
     </row>
     <row r="50" spans="1:9" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C50" s="2">
         <v>61</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>14</v>
@@ -7329,16 +7332,16 @@
     </row>
     <row r="51" spans="1:9" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C51" s="2">
         <v>61</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>14</v>
@@ -7360,8 +7363,8 @@
   </sheetPr>
   <dimension ref="A1:AN57"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C57"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7416,10 +7419,10 @@
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C2" s="2">
         <v>61</v>
@@ -7436,10 +7439,10 @@
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C3" s="2">
         <v>61</v>
@@ -7456,10 +7459,10 @@
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C4" s="2">
         <v>61</v>
@@ -7476,10 +7479,10 @@
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C5" s="2">
         <v>61</v>
@@ -7496,10 +7499,10 @@
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C6" s="2">
         <v>61</v>
@@ -7516,10 +7519,10 @@
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C7" s="2">
         <v>61</v>
@@ -7536,10 +7539,10 @@
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C8" s="2">
         <v>61</v>
@@ -7556,10 +7559,10 @@
     </row>
     <row r="9" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C9" s="2">
         <v>61</v>
@@ -7576,10 +7579,10 @@
     </row>
     <row r="10" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C10" s="2">
         <v>61</v>
@@ -7596,10 +7599,10 @@
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C11" s="2">
         <v>61</v>
@@ -7616,10 +7619,10 @@
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C12" s="2">
         <v>61</v>
@@ -7636,10 +7639,10 @@
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C13" s="2">
         <v>61</v>
@@ -7656,10 +7659,10 @@
     </row>
     <row r="14" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C14" s="2">
         <v>61</v>
@@ -7676,10 +7679,10 @@
     </row>
     <row r="15" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C15" s="2">
         <v>61</v>
@@ -7696,16 +7699,16 @@
     </row>
     <row r="16" spans="1:12" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C16" s="2">
         <v>61</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>52</v>
+        <v>409</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
@@ -7716,16 +7719,16 @@
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C17" s="2">
         <v>61</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>54</v>
+      <c r="D17" s="11" t="s">
+        <v>410</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>14</v>
@@ -7736,16 +7739,16 @@
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C18" s="2">
         <v>61</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>14</v>
@@ -7756,16 +7759,16 @@
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C19" s="2">
         <v>61</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>14</v>
@@ -7776,16 +7779,16 @@
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C20" s="2">
         <v>61</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>14</v>
@@ -7796,16 +7799,16 @@
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C21" s="2">
         <v>61</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
@@ -7816,16 +7819,16 @@
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C22" s="2">
         <v>61</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
@@ -7836,16 +7839,16 @@
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C23" s="2">
         <v>61</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>14</v>
@@ -7856,16 +7859,16 @@
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C24" s="2">
         <v>61</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>14</v>
@@ -7876,16 +7879,16 @@
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C25" s="2">
         <v>61</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>14</v>
@@ -7896,16 +7899,16 @@
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C26" s="2">
         <v>61</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>14</v>
@@ -7916,16 +7919,16 @@
     </row>
     <row r="27" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C27" s="2">
         <v>61</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>14</v>
@@ -7936,16 +7939,16 @@
     </row>
     <row r="28" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C28" s="2">
         <v>61</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>14</v>
@@ -7956,16 +7959,16 @@
     </row>
     <row r="29" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C29" s="2">
         <v>61</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>14</v>
@@ -7976,16 +7979,16 @@
     </row>
     <row r="30" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C30" s="2">
         <v>61</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>14</v>
@@ -7996,16 +7999,16 @@
     </row>
     <row r="31" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C31" s="2">
         <v>61</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>14</v>
@@ -8016,16 +8019,16 @@
     </row>
     <row r="32" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C32" s="2">
         <v>61</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
@@ -8036,16 +8039,16 @@
     </row>
     <row r="33" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C33" s="2">
         <v>61</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>14</v>
@@ -8056,16 +8059,16 @@
     </row>
     <row r="34" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C34" s="2">
         <v>61</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>14</v>
@@ -8076,16 +8079,16 @@
     </row>
     <row r="35" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C35" s="2">
         <v>61</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>14</v>
@@ -8096,16 +8099,16 @@
     </row>
     <row r="36" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C36" s="2">
         <v>61</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>14</v>
@@ -8116,16 +8119,16 @@
     </row>
     <row r="37" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C37" s="2">
         <v>61</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>14</v>
@@ -8136,16 +8139,16 @@
     </row>
     <row r="38" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C38" s="2">
         <v>61</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>14</v>
@@ -8156,16 +8159,16 @@
     </row>
     <row r="39" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C39" s="2">
         <v>61</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>14</v>
@@ -8176,16 +8179,16 @@
     </row>
     <row r="40" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C40" s="2">
         <v>61</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>14</v>
@@ -8196,16 +8199,16 @@
     </row>
     <row r="41" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C41" s="2">
         <v>61</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>14</v>
@@ -8216,16 +8219,16 @@
     </row>
     <row r="42" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C42" s="2">
         <v>61</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>14</v>
@@ -8236,16 +8239,16 @@
     </row>
     <row r="43" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C43" s="2">
         <v>61</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>14</v>
@@ -8256,16 +8259,16 @@
     </row>
     <row r="44" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C44" s="2">
         <v>61</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>14</v>
@@ -8276,16 +8279,16 @@
     </row>
     <row r="45" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C45" s="2">
         <v>61</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>14</v>
@@ -8296,16 +8299,16 @@
     </row>
     <row r="46" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C46" s="2">
         <v>61</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>14</v>
@@ -8316,16 +8319,16 @@
     </row>
     <row r="47" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C47" s="2">
         <v>61</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>14</v>
@@ -8336,16 +8339,16 @@
     </row>
     <row r="48" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C48" s="2">
         <v>61</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>14</v>
@@ -8356,16 +8359,16 @@
     </row>
     <row r="49" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C49" s="2">
         <v>61</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>14</v>
@@ -8376,16 +8379,16 @@
     </row>
     <row r="50" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C50" s="2">
         <v>61</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>14</v>
@@ -8396,16 +8399,16 @@
     </row>
     <row r="51" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C51" s="2">
         <v>61</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>14</v>
@@ -8416,16 +8419,16 @@
     </row>
     <row r="52" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C52" s="2">
         <v>61</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>14</v>
@@ -8436,16 +8439,16 @@
     </row>
     <row r="53" spans="1:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C53" s="2">
         <v>61</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>14</v>
@@ -8456,16 +8459,16 @@
     </row>
     <row r="54" spans="1:9" s="2" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C54" s="2">
         <v>61</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>14</v>
@@ -8476,16 +8479,16 @@
     </row>
     <row r="55" spans="1:9" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C55" s="2">
         <v>61</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>14</v>
@@ -8496,16 +8499,16 @@
     </row>
     <row r="56" spans="1:9" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C56" s="2">
         <v>61</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>14</v>
@@ -8516,16 +8519,16 @@
     </row>
     <row r="57" spans="1:9" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C57" s="2">
         <v>61</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>14</v>

--- a/FCS测试用例/测试用例.xlsx
+++ b/FCS测试用例/测试用例.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="410">
   <si>
     <t>用例名</t>
   </si>
@@ -324,67 +324,67 @@
     <t>doc_0_043</t>
   </si>
   <si>
-    <t>{"noCache":1,"wmPicPath":"7ac2d37de7db40ecb0f1b9ec9e3a70ad/a.jpg"}</t>
+    <t>{"noCache":1,"wmPicPath":"340bb3d5569e4e30a15fa24097f65657/a.jpg"}</t>
   </si>
   <si>
     <t>doc_0_044</t>
   </si>
   <si>
-    <t>{"noCache":1,"wmPicSize":"10","wmPicPath":"7ac2d37de7db40ecb0f1b9ec9e3a70ad/a.jpg"}</t>
+    <t>{"noCache":1,"wmPicSize":"10","wmPicPath":"340bb3d5569e4e30a15fa24097f65657/a.jpg"}</t>
   </si>
   <si>
     <t>doc_0_045</t>
   </si>
   <si>
-    <t>{"noCache":1,"wmMargin":"30,40","wmPicPath":"7ac2d37de7db40ecb0f1b9ec9e3a70ad/a.jpg"}</t>
+    <t>{"noCache":1,"wmMargin":"30,40","wmPicPath":"340bb3d5569e4e30a15fa24097f65657/a.jpg"}</t>
   </si>
   <si>
     <t>doc_0_046</t>
   </si>
   <si>
-    <t>{"noCache":1,"wmMargin":"100,200","wmPicPath":"7ac2d37de7db40ecb0f1b9ec9e3a70ad/a.jpg"}</t>
+    <t>{"noCache":1,"wmMargin":"100,200","wmPicPath":"340bb3d5569e4e30a15fa24097f65657/a.jpg"}</t>
   </si>
   <si>
     <t>doc_0_047</t>
   </si>
   <si>
-    <t>{"noCache":1,"wmTransparency":"0.2","wmPicPath":"7ac2d37de7db40ecb0f1b9ec9e3a70ad/a.jpg"}</t>
+    <t>{"noCache":1,"wmTransparency":"0.2","wmPicPath":"340bb3d5569e4e30a15fa24097f65657/a.jpg"}</t>
   </si>
   <si>
     <t>doc_0_048</t>
   </si>
   <si>
-    <t>{"noCache":1,"wmTransparency":"0","wmPicPath":"7ac2d37de7db40ecb0f1b9ec9e3a70ad/a.jpg"}</t>
+    <t>{"noCache":1,"wmTransparency":"0","wmPicPath":"340bb3d5569e4e30a15fa24097f65657/a.jpg"}</t>
   </si>
   <si>
     <t>doc_0_049</t>
   </si>
   <si>
-    <t>{"noCache":1,"wmTransparency":"1","wmPicPath":"7ac2d37de7db40ecb0f1b9ec9e3a70ad/a.jpg"}</t>
+    <t>{"noCache":1,"wmTransparency":"1","wmPicPath":"340bb3d5569e4e30a15fa24097f65657/a.jpg"}</t>
   </si>
   <si>
     <t>doc_0_050</t>
   </si>
   <si>
-    <t>{"noCache":1,"wmRotate":"45","wmPicPath":"7ac2d37de7db40ecb0f1b9ec9e3a70ad/a.jpg"}</t>
+    <t>{"noCache":1,"wmRotate":"45","wmPicPath":"340bb3d5569e4e30a15fa24097f65657/a.jpg"}</t>
   </si>
   <si>
     <t>doc_0_051</t>
   </si>
   <si>
-    <t>{"noCache":1,"wmRotate":"90","wmPicPath":"7ac2d37de7db40ecb0f1b9ec9e3a70ad/a.jpg"}</t>
+    <t>{"noCache":1,"wmRotate":"90","wmPicPath":"340bb3d5569e4e30a15fa24097f65657/a.jpg"}</t>
   </si>
   <si>
     <t>doc_0_052</t>
   </si>
   <si>
-    <t>{"noCache":1,"wmPosition":"1,1","wmPicPath":"7ac2d37de7db40ecb0f1b9ec9e3a70ad/a.jpg"}</t>
+    <t>{"noCache":1,"wmPosition":"1,1","wmPicPath":"340bb3d5569e4e30a15fa24097f65657/a.jpg"}</t>
   </si>
   <si>
     <t>doc_0_053</t>
   </si>
   <si>
-    <t>{"noCache":1,"wmPosition":"300,400","wmPicPath":"7ac2d37de7db40ecb0f1b9ec9e3a70ad/a.jpg"}</t>
+    <t>{"noCache":1,"wmPosition":"300,400","wmPicPath":"340bb3d5569e4e30a15fa24097f65657/a.jpg"}</t>
   </si>
   <si>
     <t>doc_0_054</t>
@@ -396,7 +396,7 @@
     <t>doc_0_055</t>
   </si>
   <si>
-    <t>{"noCache":1,"wmMargin":"30,50","wmTransparency":"0.5","wmRotate":"45","wmPosition":"100,800","wmPicSize":"30","wmPicPath":"7ac2d37de7db40ecb0f1b9ec9e3a70ad/a.jpg"}</t>
+    <t>{"noCache":1,"wmMargin":"30,50","wmTransparency":"0.5","wmRotate":"45","wmPosition":"100,800","wmPicSize":"30","wmPicPath":"340bb3d5569e4e30a15fa24097f65657/a.jpg"}</t>
   </si>
   <si>
     <t>doc_0_056</t>
@@ -436,6 +436,9 @@
   </si>
   <si>
     <t>C:\Users\user1216\Desktop\新建文件夹\2.xlsx</t>
+  </si>
+  <si>
+    <t>失败</t>
   </si>
   <si>
     <t>excel_0_008</t>
@@ -1921,19 +1924,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2258,7 +2261,7 @@
   </sheetPr>
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
@@ -2402,7 +2405,7 @@
       <c r="C6" s="2">
         <v>0</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -2422,7 +2425,7 @@
       <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -3610,7 +3613,7 @@
       <c r="C6" s="2">
         <v>0</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -3630,7 +3633,7 @@
       <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -3656,13 +3659,16 @@
       <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="G8" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="I8" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A9" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>138</v>
@@ -3676,13 +3682,16 @@
       <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="G9" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="I9" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>138</v>
@@ -3696,13 +3705,16 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="G10" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="I10" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A11" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>131</v>
@@ -3722,10 +3734,10 @@
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -3742,10 +3754,10 @@
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A13" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -3762,7 +3774,7 @@
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>131</v>
@@ -3782,7 +3794,7 @@
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A15" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>131</v>
@@ -3802,7 +3814,7 @@
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A16" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>131</v>
@@ -3810,11 +3822,14 @@
       <c r="C16" s="2">
         <v>0</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="I16" s="8">
         <v>1</v>
@@ -3822,7 +3837,7 @@
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A17" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>131</v>
@@ -3830,11 +3845,14 @@
       <c r="C17" s="2">
         <v>0</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="I17" s="8">
         <v>1</v>
@@ -3842,7 +3860,7 @@
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A18" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>131</v>
@@ -3862,7 +3880,7 @@
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A19" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>131</v>
@@ -3882,7 +3900,7 @@
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A20" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>131</v>
@@ -3902,7 +3920,7 @@
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A21" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>131</v>
@@ -3922,7 +3940,7 @@
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A22" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>131</v>
@@ -3942,7 +3960,7 @@
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>131</v>
@@ -3962,7 +3980,7 @@
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A24" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>131</v>
@@ -3982,7 +4000,7 @@
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A25" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>131</v>
@@ -4002,7 +4020,7 @@
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>131</v>
@@ -4022,7 +4040,7 @@
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A27" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>131</v>
@@ -4042,7 +4060,7 @@
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A28" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>131</v>
@@ -4062,7 +4080,7 @@
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A29" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>131</v>
@@ -4082,7 +4100,7 @@
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A30" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>131</v>
@@ -4102,7 +4120,7 @@
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A31" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>131</v>
@@ -4122,7 +4140,7 @@
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A32" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>131</v>
@@ -4142,7 +4160,7 @@
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A33" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>131</v>
@@ -4162,7 +4180,7 @@
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A34" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>131</v>
@@ -4182,7 +4200,7 @@
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A35" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>131</v>
@@ -4202,7 +4220,7 @@
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A36" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>131</v>
@@ -4222,7 +4240,7 @@
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A37" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>131</v>
@@ -4242,7 +4260,7 @@
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A38" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>131</v>
@@ -4262,7 +4280,7 @@
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A39" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>131</v>
@@ -4282,7 +4300,7 @@
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A40" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>131</v>
@@ -4302,7 +4320,7 @@
     </row>
     <row r="41" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A41" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>131</v>
@@ -4322,7 +4340,7 @@
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A42" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>131</v>
@@ -4342,7 +4360,7 @@
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A43" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>131</v>
@@ -4362,7 +4380,7 @@
     </row>
     <row r="44" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A44" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>131</v>
@@ -4382,7 +4400,7 @@
     </row>
     <row r="45" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A45" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>131</v>
@@ -4402,7 +4420,7 @@
     </row>
     <row r="46" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A46" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>131</v>
@@ -4422,7 +4440,7 @@
     </row>
     <row r="47" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A47" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>131</v>
@@ -4442,7 +4460,7 @@
     </row>
     <row r="48" s="2" customFormat="1" ht="60.75" customHeight="1" spans="1:9">
       <c r="A48" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>131</v>
@@ -4462,7 +4480,7 @@
     </row>
     <row r="49" s="2" customFormat="1" ht="45.75" customHeight="1" spans="1:9">
       <c r="A49" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>131</v>
@@ -4482,7 +4500,7 @@
     </row>
     <row r="50" s="2" customFormat="1" ht="45.75" customHeight="1" spans="1:9">
       <c r="A50" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>131</v>
@@ -4502,7 +4520,7 @@
     </row>
     <row r="51" s="2" customFormat="1" ht="45.75" customHeight="1" spans="1:9">
       <c r="A51" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>131</v>
@@ -4540,7 +4558,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.8787878787879" style="2" customWidth="1"/>
-    <col min="2" max="2" width="36.1287878787879" style="9" customWidth="1"/>
+    <col min="2" max="2" width="36.1287878787879" style="10" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
     <col min="4" max="4" width="81.8787878787879" style="3" customWidth="1"/>
     <col min="5" max="5" width="35.1287878787879" style="2" customWidth="1"/>
@@ -4553,7 +4571,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -4589,10 +4607,10 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -4609,10 +4627,10 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -4629,10 +4647,10 @@
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -4649,10 +4667,10 @@
     </row>
     <row r="5" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -4669,15 +4687,15 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -4689,15 +4707,15 @@
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -4709,10 +4727,10 @@
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -4729,10 +4747,10 @@
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A9" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -4749,10 +4767,10 @@
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -4769,10 +4787,10 @@
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A11" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -4789,10 +4807,10 @@
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -4809,10 +4827,10 @@
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A13" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -4829,10 +4847,10 @@
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -4849,10 +4867,10 @@
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A15" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -4869,10 +4887,10 @@
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A16" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -4889,10 +4907,10 @@
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A17" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -4909,10 +4927,10 @@
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A18" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -4929,10 +4947,10 @@
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A19" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -4949,10 +4967,10 @@
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A20" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -4969,10 +4987,10 @@
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A21" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -4989,10 +5007,10 @@
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A22" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -5009,16 +5027,16 @@
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>15</v>
@@ -5029,16 +5047,16 @@
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A24" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>15</v>
@@ -5049,10 +5067,10 @@
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A25" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -5069,10 +5087,10 @@
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
@@ -5089,10 +5107,10 @@
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A27" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -5109,10 +5127,10 @@
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A28" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
@@ -5129,10 +5147,10 @@
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A29" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
@@ -5149,10 +5167,10 @@
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A30" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
@@ -5169,10 +5187,10 @@
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A31" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
@@ -5189,10 +5207,10 @@
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A32" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C32" s="2">
         <v>0</v>
@@ -5209,10 +5227,10 @@
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A33" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
@@ -5229,10 +5247,10 @@
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A34" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C34" s="2">
         <v>0</v>
@@ -5249,10 +5267,10 @@
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A35" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C35" s="2">
         <v>0</v>
@@ -5269,10 +5287,10 @@
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A36" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C36" s="2">
         <v>0</v>
@@ -5289,10 +5307,10 @@
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A37" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C37" s="2">
         <v>0</v>
@@ -5309,10 +5327,10 @@
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A38" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C38" s="2">
         <v>0</v>
@@ -5329,10 +5347,10 @@
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A39" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C39" s="2">
         <v>0</v>
@@ -5349,10 +5367,10 @@
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A40" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C40" s="2">
         <v>0</v>
@@ -5369,10 +5387,10 @@
     </row>
     <row r="41" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A41" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C41" s="2">
         <v>0</v>
@@ -5389,10 +5407,10 @@
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A42" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
@@ -5409,10 +5427,10 @@
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A43" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
@@ -5429,10 +5447,10 @@
     </row>
     <row r="44" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A44" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
@@ -5449,10 +5467,10 @@
     </row>
     <row r="45" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A45" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
@@ -5469,10 +5487,10 @@
     </row>
     <row r="46" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A46" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
@@ -5489,10 +5507,10 @@
     </row>
     <row r="47" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A47" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -5509,10 +5527,10 @@
     </row>
     <row r="48" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A48" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -5529,10 +5547,10 @@
     </row>
     <row r="49" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A49" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
@@ -5549,10 +5567,10 @@
     </row>
     <row r="50" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A50" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
@@ -5569,10 +5587,10 @@
     </row>
     <row r="51" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A51" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -5589,10 +5607,10 @@
     </row>
     <row r="52" s="2" customFormat="1" ht="60.75" customHeight="1" spans="1:9">
       <c r="A52" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -5609,10 +5627,10 @@
     </row>
     <row r="53" s="2" customFormat="1" ht="45.75" customHeight="1" spans="1:9">
       <c r="A53" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
@@ -5629,10 +5647,10 @@
     </row>
     <row r="54" s="2" customFormat="1" ht="45.75" customHeight="1" spans="1:9">
       <c r="A54" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -5649,10 +5667,10 @@
     </row>
     <row r="55" s="2" customFormat="1" ht="45.75" customHeight="1" spans="1:9">
       <c r="A55" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
@@ -5736,7 +5754,7 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>13</v>
@@ -5756,7 +5774,7 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>13</v>
@@ -5776,7 +5794,7 @@
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
@@ -5796,7 +5814,7 @@
     </row>
     <row r="5" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>13</v>
@@ -5816,7 +5834,7 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>13</v>
@@ -5824,7 +5842,7 @@
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -5836,7 +5854,7 @@
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
@@ -5844,7 +5862,7 @@
       <c r="C7" s="2">
         <v>61</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -5856,7 +5874,7 @@
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
@@ -5876,7 +5894,7 @@
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A9" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>27</v>
@@ -5896,7 +5914,7 @@
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>27</v>
@@ -5916,7 +5934,7 @@
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A11" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>13</v>
@@ -5936,7 +5954,7 @@
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>36</v>
@@ -5956,7 +5974,7 @@
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A13" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>36</v>
@@ -5976,7 +5994,7 @@
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>13</v>
@@ -5996,7 +6014,7 @@
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A15" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>13</v>
@@ -6016,7 +6034,7 @@
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A16" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>13</v>
@@ -6036,7 +6054,7 @@
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A17" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>13</v>
@@ -6056,7 +6074,7 @@
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A18" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>13</v>
@@ -6076,7 +6094,7 @@
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A19" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>13</v>
@@ -6096,7 +6114,7 @@
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A20" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>13</v>
@@ -6116,7 +6134,7 @@
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A21" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>13</v>
@@ -6136,7 +6154,7 @@
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A22" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>13</v>
@@ -6156,7 +6174,7 @@
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>13</v>
@@ -6176,7 +6194,7 @@
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A24" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>13</v>
@@ -6196,7 +6214,7 @@
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A25" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>13</v>
@@ -6216,7 +6234,7 @@
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>13</v>
@@ -6236,7 +6254,7 @@
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A27" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>13</v>
@@ -6256,7 +6274,7 @@
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A28" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>13</v>
@@ -6276,7 +6294,7 @@
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A29" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>13</v>
@@ -6296,7 +6314,7 @@
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A30" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>13</v>
@@ -6316,7 +6334,7 @@
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A31" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>13</v>
@@ -6336,7 +6354,7 @@
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A32" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>13</v>
@@ -6356,7 +6374,7 @@
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A33" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>13</v>
@@ -6376,7 +6394,7 @@
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A34" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>13</v>
@@ -6396,7 +6414,7 @@
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A35" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>13</v>
@@ -6416,7 +6434,7 @@
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A36" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>13</v>
@@ -6436,7 +6454,7 @@
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A37" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>13</v>
@@ -6456,7 +6474,7 @@
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A38" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>13</v>
@@ -6476,7 +6494,7 @@
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A39" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>13</v>
@@ -6496,7 +6514,7 @@
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A40" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>13</v>
@@ -6516,7 +6534,7 @@
     </row>
     <row r="41" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A41" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>13</v>
@@ -6536,7 +6554,7 @@
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A42" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>13</v>
@@ -6556,7 +6574,7 @@
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A43" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>13</v>
@@ -6576,7 +6594,7 @@
     </row>
     <row r="44" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A44" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>13</v>
@@ -6596,7 +6614,7 @@
     </row>
     <row r="45" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A45" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>13</v>
@@ -6616,7 +6634,7 @@
     </row>
     <row r="46" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A46" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>13</v>
@@ -6636,7 +6654,7 @@
     </row>
     <row r="47" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A47" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>13</v>
@@ -6656,7 +6674,7 @@
     </row>
     <row r="48" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A48" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>13</v>
@@ -6676,7 +6694,7 @@
     </row>
     <row r="49" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A49" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>13</v>
@@ -6696,7 +6714,7 @@
     </row>
     <row r="50" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A50" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>13</v>
@@ -6716,7 +6734,7 @@
     </row>
     <row r="51" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A51" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>13</v>
@@ -6736,7 +6754,7 @@
     </row>
     <row r="52" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A52" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>13</v>
@@ -6756,7 +6774,7 @@
     </row>
     <row r="53" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A53" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>13</v>
@@ -6776,7 +6794,7 @@
     </row>
     <row r="54" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A54" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>13</v>
@@ -6796,7 +6814,7 @@
     </row>
     <row r="55" s="2" customFormat="1" ht="60.75" customHeight="1" spans="1:9">
       <c r="A55" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>13</v>
@@ -6816,7 +6834,7 @@
     </row>
     <row r="56" s="2" customFormat="1" ht="45.75" customHeight="1" spans="1:9">
       <c r="A56" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>13</v>
@@ -6836,7 +6854,7 @@
     </row>
     <row r="57" s="2" customFormat="1" ht="45.75" customHeight="1" spans="1:9">
       <c r="A57" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>13</v>
@@ -6856,7 +6874,7 @@
     </row>
     <row r="58" s="2" customFormat="1" ht="45.75" customHeight="1" spans="1:9">
       <c r="A58" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>13</v>
@@ -6943,7 +6961,7 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>131</v>
@@ -6963,7 +6981,7 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>131</v>
@@ -6983,7 +7001,7 @@
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>131</v>
@@ -7003,7 +7021,7 @@
     </row>
     <row r="5" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>131</v>
@@ -7023,7 +7041,7 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>131</v>
@@ -7043,7 +7061,7 @@
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>131</v>
@@ -7063,7 +7081,7 @@
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>138</v>
@@ -7077,13 +7095,16 @@
       <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="G8" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="I8" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A9" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>138</v>
@@ -7097,13 +7118,16 @@
       <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="G9" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="I9" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>138</v>
@@ -7117,13 +7141,16 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="G10" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="I10" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A11" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>131</v>
@@ -7143,10 +7170,10 @@
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C12" s="2">
         <v>61</v>
@@ -7163,10 +7190,10 @@
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A13" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C13" s="2">
         <v>61</v>
@@ -7183,7 +7210,7 @@
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>131</v>
@@ -7203,7 +7230,7 @@
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A15" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>131</v>
@@ -7223,7 +7250,7 @@
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A16" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>131</v>
@@ -7237,13 +7264,16 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="G16" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="I16" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A17" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>131</v>
@@ -7257,13 +7287,16 @@
       <c r="E17" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="G17" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="I17" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A18" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>131</v>
@@ -7283,7 +7316,7 @@
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A19" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>131</v>
@@ -7303,7 +7336,7 @@
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A20" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>131</v>
@@ -7323,7 +7356,7 @@
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A21" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>131</v>
@@ -7343,7 +7376,7 @@
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A22" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>131</v>
@@ -7363,7 +7396,7 @@
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>131</v>
@@ -7383,7 +7416,7 @@
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A24" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>131</v>
@@ -7403,7 +7436,7 @@
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A25" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>131</v>
@@ -7423,7 +7456,7 @@
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>131</v>
@@ -7443,7 +7476,7 @@
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A27" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>131</v>
@@ -7463,7 +7496,7 @@
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A28" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>131</v>
@@ -7483,7 +7516,7 @@
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A29" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>131</v>
@@ -7503,7 +7536,7 @@
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A30" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>131</v>
@@ -7523,7 +7556,7 @@
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A31" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>131</v>
@@ -7543,7 +7576,7 @@
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A32" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>131</v>
@@ -7563,7 +7596,7 @@
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A33" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>131</v>
@@ -7583,7 +7616,7 @@
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A34" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>131</v>
@@ -7603,7 +7636,7 @@
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A35" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>131</v>
@@ -7623,7 +7656,7 @@
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A36" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>131</v>
@@ -7643,7 +7676,7 @@
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A37" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>131</v>
@@ -7663,7 +7696,7 @@
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A38" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>131</v>
@@ -7683,7 +7716,7 @@
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A39" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>131</v>
@@ -7703,7 +7736,7 @@
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A40" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>131</v>
@@ -7723,7 +7756,7 @@
     </row>
     <row r="41" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A41" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>131</v>
@@ -7743,7 +7776,7 @@
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A42" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>131</v>
@@ -7763,7 +7796,7 @@
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A43" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>131</v>
@@ -7783,7 +7816,7 @@
     </row>
     <row r="44" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A44" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>131</v>
@@ -7803,7 +7836,7 @@
     </row>
     <row r="45" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A45" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>131</v>
@@ -7823,7 +7856,7 @@
     </row>
     <row r="46" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A46" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>131</v>
@@ -7843,7 +7876,7 @@
     </row>
     <row r="47" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A47" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>131</v>
@@ -7863,7 +7896,7 @@
     </row>
     <row r="48" s="2" customFormat="1" ht="60.75" customHeight="1" spans="1:9">
       <c r="A48" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>131</v>
@@ -7883,7 +7916,7 @@
     </row>
     <row r="49" s="2" customFormat="1" ht="45.75" customHeight="1" spans="1:9">
       <c r="A49" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>131</v>
@@ -7903,7 +7936,7 @@
     </row>
     <row r="50" s="2" customFormat="1" ht="45.75" customHeight="1" spans="1:9">
       <c r="A50" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>131</v>
@@ -7923,7 +7956,7 @@
     </row>
     <row r="51" s="2" customFormat="1" ht="45.75" customHeight="1" spans="1:9">
       <c r="A51" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>131</v>
@@ -7954,7 +7987,7 @@
   </sheetPr>
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -8010,10 +8043,10 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2">
         <v>61</v>
@@ -8030,10 +8063,10 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C3" s="2">
         <v>61</v>
@@ -8050,10 +8083,10 @@
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C4" s="2">
         <v>61</v>
@@ -8070,10 +8103,10 @@
     </row>
     <row r="5" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C5" s="2">
         <v>61</v>
@@ -8090,10 +8123,10 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C6" s="2">
         <v>61</v>
@@ -8110,10 +8143,10 @@
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C7" s="2">
         <v>61</v>
@@ -8130,10 +8163,10 @@
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C8" s="2">
         <v>61</v>
@@ -8150,10 +8183,10 @@
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A9" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C9" s="2">
         <v>61</v>
@@ -8170,10 +8203,10 @@
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C10" s="2">
         <v>61</v>
@@ -8190,10 +8223,10 @@
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A11" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C11" s="2">
         <v>61</v>
@@ -8210,10 +8243,10 @@
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C12" s="2">
         <v>61</v>
@@ -8230,10 +8263,10 @@
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A13" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C13" s="2">
         <v>61</v>
@@ -8250,10 +8283,10 @@
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C14" s="2">
         <v>61</v>
@@ -8270,10 +8303,10 @@
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A15" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C15" s="2">
         <v>61</v>
@@ -8290,10 +8323,10 @@
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A16" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2">
         <v>61</v>
@@ -8310,10 +8343,10 @@
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A17" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2">
         <v>61</v>
@@ -8330,10 +8363,10 @@
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A18" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C18" s="2">
         <v>61</v>
@@ -8350,10 +8383,10 @@
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A19" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C19" s="2">
         <v>61</v>
@@ -8370,10 +8403,10 @@
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A20" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C20" s="2">
         <v>61</v>
@@ -8390,10 +8423,10 @@
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A21" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C21" s="2">
         <v>61</v>
@@ -8410,10 +8443,10 @@
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A22" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C22" s="2">
         <v>61</v>
@@ -8430,16 +8463,16 @@
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C23" s="2">
         <v>61</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>15</v>
@@ -8450,16 +8483,16 @@
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A24" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C24" s="2">
         <v>61</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>15</v>
@@ -8470,16 +8503,16 @@
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A25" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C25" s="2">
         <v>61</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>15</v>
@@ -8490,16 +8523,16 @@
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C26" s="2">
         <v>61</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>15</v>
@@ -8510,10 +8543,10 @@
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A27" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C27" s="2">
         <v>61</v>
@@ -8530,10 +8563,10 @@
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A28" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C28" s="2">
         <v>61</v>
@@ -8550,10 +8583,10 @@
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A29" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C29" s="2">
         <v>61</v>
@@ -8570,10 +8603,10 @@
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A30" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C30" s="2">
         <v>61</v>
@@ -8590,10 +8623,10 @@
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A31" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C31" s="2">
         <v>61</v>
@@ -8610,10 +8643,10 @@
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A32" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C32" s="2">
         <v>61</v>
@@ -8630,10 +8663,10 @@
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A33" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C33" s="2">
         <v>61</v>
@@ -8650,10 +8683,10 @@
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A34" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C34" s="2">
         <v>61</v>
@@ -8670,10 +8703,10 @@
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A35" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C35" s="2">
         <v>61</v>
@@ -8690,10 +8723,10 @@
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A36" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C36" s="2">
         <v>61</v>
@@ -8710,10 +8743,10 @@
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A37" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C37" s="2">
         <v>61</v>
@@ -8730,10 +8763,10 @@
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A38" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C38" s="2">
         <v>61</v>
@@ -8750,10 +8783,10 @@
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A39" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C39" s="2">
         <v>61</v>
@@ -8770,10 +8803,10 @@
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A40" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C40" s="2">
         <v>61</v>
@@ -8790,10 +8823,10 @@
     </row>
     <row r="41" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A41" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C41" s="2">
         <v>61</v>
@@ -8810,10 +8843,10 @@
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A42" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C42" s="2">
         <v>61</v>
@@ -8830,10 +8863,10 @@
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A43" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C43" s="2">
         <v>61</v>
@@ -8850,10 +8883,10 @@
     </row>
     <row r="44" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A44" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C44" s="2">
         <v>61</v>
@@ -8870,10 +8903,10 @@
     </row>
     <row r="45" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A45" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C45" s="2">
         <v>61</v>
@@ -8890,10 +8923,10 @@
     </row>
     <row r="46" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A46" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C46" s="2">
         <v>61</v>
@@ -8910,10 +8943,10 @@
     </row>
     <row r="47" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A47" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C47" s="2">
         <v>61</v>
@@ -8930,10 +8963,10 @@
     </row>
     <row r="48" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A48" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C48" s="2">
         <v>61</v>
@@ -8950,10 +8983,10 @@
     </row>
     <row r="49" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A49" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C49" s="2">
         <v>61</v>
@@ -8970,10 +9003,10 @@
     </row>
     <row r="50" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A50" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C50" s="2">
         <v>61</v>
@@ -8990,10 +9023,10 @@
     </row>
     <row r="51" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A51" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C51" s="2">
         <v>61</v>
@@ -9010,10 +9043,10 @@
     </row>
     <row r="52" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A52" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C52" s="2">
         <v>61</v>
@@ -9030,10 +9063,10 @@
     </row>
     <row r="53" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A53" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C53" s="2">
         <v>61</v>
@@ -9050,10 +9083,10 @@
     </row>
     <row r="54" s="2" customFormat="1" ht="60.75" customHeight="1" spans="1:9">
       <c r="A54" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C54" s="2">
         <v>61</v>
@@ -9070,10 +9103,10 @@
     </row>
     <row r="55" s="2" customFormat="1" ht="45.75" customHeight="1" spans="1:9">
       <c r="A55" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C55" s="2">
         <v>61</v>
@@ -9090,10 +9123,10 @@
     </row>
     <row r="56" s="2" customFormat="1" ht="45.75" customHeight="1" spans="1:9">
       <c r="A56" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C56" s="2">
         <v>61</v>
@@ -9110,10 +9143,10 @@
     </row>
     <row r="57" s="2" customFormat="1" ht="45.75" customHeight="1" spans="1:9">
       <c r="A57" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C57" s="2">
         <v>61</v>
